--- a/data/trans_dic/P15D$consultar-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15D$consultar-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,64; 20,0</t>
+          <t>2,64; 22,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 14,23</t>
+          <t>1,57; 14,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,97</t>
+          <t>0,0; 11,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,77</t>
+          <t>0,0; 57,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,94; 65,91</t>
+          <t>9,56; 66,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,09; 26,13</t>
+          <t>3,08; 25,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,82</t>
+          <t>0,0; 21,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,17</t>
+          <t>0,0; 47,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,52; 27,18</t>
+          <t>6,58; 27,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,21; 14,77</t>
+          <t>3,19; 13,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,71</t>
+          <t>0,0; 11,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 37,26</t>
+          <t>3,51; 38,71</t>
         </is>
       </c>
     </row>
@@ -864,22 +865,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,83; 25,97</t>
+          <t>2,88; 25,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 17,51</t>
+          <t>3,31; 17,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,46; 24,21</t>
+          <t>5,4; 24,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,62</t>
+          <t>0,0; 33,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,37 +890,37 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 24,1</t>
+          <t>2,6; 23,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,82</t>
+          <t>0,0; 25,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,72; 70,07</t>
+          <t>19,71; 69,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 16,29</t>
+          <t>1,87; 17,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,64; 15,64</t>
+          <t>4,73; 16,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,13; 20,3</t>
+          <t>5,04; 19,61</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,44; 39,98</t>
+          <t>8,41; 35,86</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1005,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,32; 58,2</t>
+          <t>10,27; 60,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,81; 23,32</t>
+          <t>5,22; 24,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,79; 29,22</t>
+          <t>7,83; 32,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1025,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,37</t>
+          <t>0,0; 58,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 23,35</t>
+          <t>2,97; 23,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 30,14</t>
+          <t>0,0; 27,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,88; 35,07</t>
+          <t>9,05; 33,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,69; 46,07</t>
+          <t>9,59; 44,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 19,99</t>
+          <t>5,72; 19,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,3; 24,32</t>
+          <t>6,25; 24,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 15,93</t>
+          <t>3,62; 15,26</t>
         </is>
       </c>
     </row>
@@ -1144,22 +1145,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 39,79</t>
+          <t>4,86; 39,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,87; 31,0</t>
+          <t>5,92; 30,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 31,64</t>
+          <t>3,66; 32,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 20,08</t>
+          <t>2,12; 19,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,37 +1170,37 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,06</t>
+          <t>0,0; 26,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 32,86</t>
+          <t>3,96; 33,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 24,54</t>
+          <t>5,93; 24,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 27,8</t>
+          <t>3,22; 25,65</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 22,2</t>
+          <t>5,01; 22,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,7; 25,81</t>
+          <t>5,83; 26,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 18,29</t>
+          <t>5,37; 18,06</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1285,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,61</t>
+          <t>0,0; 45,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,22 +1295,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,22</t>
+          <t>0,0; 37,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,72; 27,89</t>
+          <t>4,02; 29,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,33</t>
+          <t>0,0; 50,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,14</t>
+          <t>0,0; 16,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,27 +1320,27 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,38; 23,05</t>
+          <t>5,36; 23,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,21</t>
+          <t>0,0; 32,03</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,06</t>
+          <t>0,0; 12,04</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,15</t>
+          <t>0,0; 12,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,32; 20,57</t>
+          <t>6,79; 20,31</t>
         </is>
       </c>
     </row>
@@ -1429,57 +1430,57 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,77</t>
+          <t>0,0; 31,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,66</t>
+          <t>7,56; 55,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,33</t>
+          <t>0,0; 30,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,81</t>
+          <t>0,0; 54,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,52; 42,74</t>
+          <t>11,48; 42,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,82; 37,74</t>
+          <t>9,33; 37,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,65; 21,13</t>
+          <t>4,86; 22,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,46</t>
+          <t>0,0; 36,78</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,8; 28,69</t>
+          <t>6,87; 30,67</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11,57; 37,19</t>
+          <t>11,43; 35,48</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,54; 17,52</t>
+          <t>4,82; 19,0</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1565,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,88</t>
+          <t>0,0; 62,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1574,52 +1575,52 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,32; 49,91</t>
+          <t>10,02; 49,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,48; 31,89</t>
+          <t>5,93; 29,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,68; 36,56</t>
+          <t>4,72; 35,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,33</t>
+          <t>0,0; 9,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,17; 27,61</t>
+          <t>2,96; 26,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,58; 35,12</t>
+          <t>17,09; 33,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,15; 33,5</t>
+          <t>3,83; 33,3</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,84</t>
+          <t>0,0; 6,41</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,28; 27,76</t>
+          <t>7,97; 27,97</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,39; 30,14</t>
+          <t>15,75; 29,4</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,87; 20,82</t>
+          <t>8,3; 20,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,12; 11,58</t>
+          <t>5,43; 11,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,81; 17,67</t>
+          <t>8,44; 18,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,18; 14,05</t>
+          <t>5,08; 14,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,55; 21,37</t>
+          <t>6,93; 22,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,49; 12,51</t>
+          <t>5,48; 12,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,09; 15,42</t>
+          <t>6,21; 15,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,84; 23,66</t>
+          <t>14,27; 23,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,81; 17,68</t>
+          <t>9,19; 18,71</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6,21; 11,2</t>
+          <t>6,28; 11,4</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8,6; 15,22</t>
+          <t>8,54; 15,16</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,87; 17,35</t>
+          <t>10,86; 17,44</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya consecuencia del último accidente fue, al menos, consultar con un profesional sanitario (fuera de un hospital)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3736</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1057</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2578</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4010</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2956</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6839</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6692</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5727</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>891; 7568</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>934; 8496</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5258</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10994</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1012; 7048</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>946; 7708</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3954</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9458</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2913; 12255</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2882; 12406</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7101</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1370; 15121</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3899</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6544</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6484</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4039</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1907</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6292</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3899</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10583</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8392</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>8275</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1005; 9066</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2723; 14126</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2747; 12393</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9180</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1955</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>988; 9082</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5844</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2952; 10467</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1001; 9104</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5698; 19326</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3710; 14420</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3554; 15148</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6319</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5735</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2611</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2831</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2838</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5345</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>7098</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>9150</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8573</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5345</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1534; 9070</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2785; 12822</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2809; 11694</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2018</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7790</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>872; 6919</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6843</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2538; 9402</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2719; 12658</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4740; 15859</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3807; 15046</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2357; 9928</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3228</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5571</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4264</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>4420</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2883</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3154</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3809</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3228</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>8453</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>7418</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>8229</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>950; 7762</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2142; 11206</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1055; 9268</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1075; 9672</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1811</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 9262</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>970; 8277</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1742; 7333</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>939; 7490</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3563; 15770</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3107; 14123</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4303; 14465</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3610</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2160</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4367</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2160</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>7977</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4259</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1874</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5242</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1162; 8476</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4935</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6735</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2142</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1897; 8181</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6163</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6586</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5421</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4367; 13063</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2858</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1444</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5905</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5824</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3514</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>6915</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>8682</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>4958</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1423</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5458</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>827; 6114</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4900</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4969</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2908; 10890</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2733; 10882</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1603; 7399</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5063</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2928; 13073</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4598; 14273</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2374; 9354</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>949</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>4041</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3122</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1067</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>4812</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>13274</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>4418</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1067</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>8853</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>16396</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3723</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1904</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1522; 7518</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1230; 6171</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1067; 8061</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5359</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1188; 10662</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>9051; 17976</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1093; 9502</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4882</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>4408; 15470</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>11607; 21666</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>16370</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>23180</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>25475</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>17157</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>12156</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>21840</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>19475</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>39751</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>28526</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>45020</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>44950</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>56908</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>10210; 25289</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>15411; 33541</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>16848; 36178</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>10158; 28360</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>6496; 21166</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>13931; 32991</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>11817; 28885</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>30477; 49877</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>19934; 40590</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>33805; 61371</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>33298; 59107</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>44914; 72141</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>